--- a/biology/Botanique/Tillandsia_recurvata/Tillandsia_recurvata.xlsx
+++ b/biology/Botanique/Tillandsia_recurvata/Tillandsia_recurvata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia recurvata (L.) L. est une espèce de plantes à fleurs de la famille des Bromeliaceae.
 L'épithète recurvata signifie « récurvée » et se rapporte à l'aspect des feuilles.
@@ -512,7 +524,9 @@
           <t>Protologue et Type nomenclatural</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Tillandsia recurvata (L.) L., Species Plantarum ed. 2, 1: 410 (1762)
 Diagnose originale (Renealmia recurvata L.) :
@@ -548,19 +562,14 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Synonymie nomenclaturale
-[ basionyme ] Renealmia recurvata L.
-Diaphoranthema recurvata (L.) Beer
-Synonymie taxonomique
-Tillandsia uniflora Kunth[2],[3],[4],[5]
-Diaphoranthema uniflora Beer[2],[3],[4],[5]
-Phytarrhiza uniflora E. Morren ex Baker[2]
-Tillandsia bartramii Elliott[2],[3]
-Tillandsia landbeckii Philippi[3]
-Tillandsia monostachys Gillies ex Baker non L[2],[4].
-Tillandsia pauciflora Sessé &amp; Moç[4].
-Tillandsia cordobensis Hieron[3].
-Tillandsia cordobensis sensu Hassl. non Hieron[4].</t>
+          <t>Synonymie nomenclaturale</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>[ basionyme ] Renealmia recurvata L.
+Diaphoranthema recurvata (L.) Beer</t>
         </is>
       </c>
     </row>
@@ -585,14 +594,26 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Synonymie</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Tillandsia recurvata est une plante épiphyte de taille variable, courtement rameuse, à feuilles distiques écailleuses.
-Inflorescence dégagée du feuillage, pauciflore. Fleur de coloris variable : de blanc à violet, le plus souvent bleu pâle.
-</t>
+          <t>Synonymie taxonomique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Tillandsia uniflora Kunth
+Diaphoranthema uniflora Beer
+Phytarrhiza uniflora E. Morren ex Baker
+Tillandsia bartramii Elliott,
+Tillandsia landbeckii Philippi
+Tillandsia monostachys Gillies ex Baker non L,.
+Tillandsia pauciflora Sessé &amp; Moç.
+Tillandsia cordobensis Hieron.
+Tillandsia cordobensis sensu Hassl. non Hieron.</t>
         </is>
       </c>
     </row>
@@ -617,14 +638,16 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Écologie et habitat</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Typologie : plante vivace herbacée, en touffe dense ; épiphyte[6],[7],[2], rupicole[7],[5], saxicole[7] ou fixée sur supports variés (incluant les fils électriques), parfois terrestre en zones sèches[4].
-Habitat : régions plutôt sèches.
-Altitude : 0-3000 m[4].</t>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia recurvata est une plante épiphyte de taille variable, courtement rameuse, à feuilles distiques écailleuses.
+Inflorescence dégagée du feuillage, pauciflore. Fleur de coloris variable : de blanc à violet, le plus souvent bleu pâle.
+</t>
         </is>
       </c>
     </row>
@@ -649,13 +672,16 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Distribution</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Aire très vaste : depuis le sud des États-Unis jusqu'au nord du Chili et au centre de l'Argentine [5],[3],[4].
-</t>
+          <t>Écologie et habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Typologie : plante vivace herbacée, en touffe dense ; épiphyte rupicole saxicole ou fixée sur supports variés (incluant les fils électriques), parfois terrestre en zones sèches.
+Habitat : régions plutôt sèches.
+Altitude : 0-3000 m.</t>
         </is>
       </c>
     </row>
@@ -680,127 +706,619 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aire très vaste : depuis le sud des États-Unis jusqu'au nord du Chili et au centre de l'Argentine .
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Taxons infra-spécifiques</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'aire de l'espèce étant vaste, de nombreux taxons infraspécifiques ont été décrits, mais ils peuvent s'intégrer, pour la plupart; dans l'éventail de variabilité du type[4].
-Tillandsia recurvata var. recurvata
-(autonyme)
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'aire de l'espèce étant vaste, de nombreux taxons infraspécifiques ont été décrits, mais ils peuvent s'intégrer, pour la plupart; dans l'éventail de variabilité du type.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Tillandsia recurvata var. recurvata</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(autonyme)
 Synonymie :
 Tillandsia recurvata var. genuinua André
-Tillandsia recurvata var. argentea André
-Tillandsia recurvata var. argentea André, Bromel. Andr. : 65 (1889)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Tillandsia recurvata var. argentea André</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia recurvata var. argentea André, Bromel. Andr. : 65 (1889)
 Diagnose originale : (à compléter)
 Type : (à compléter)
 Distribution :  Colombie.
-Tillandsia recurvata var. brevifolia André
-Tillandsia recurvata var. brevifolia André, Bromel. Andr. : 65 (1889)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Tillandsia recurvata var. brevifolia André</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia recurvata var. brevifolia André, Bromel. Andr. : 65 (1889)
 Diagnose originale : (à compléter)
 Type : (à compléter)
 Distribution :  Bolivie.
-Tillandsia recurvata var. caespitosa André
-Tillandsia recurvata var. caespitosa André, Bromel. Andr. : 65 (1889)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Tillandsia recurvata var. caespitosa André</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia recurvata var. caespitosa André, Bromel. Andr. : 65 (1889)
 Diagnose originale : (à compléter)
 Type : (à compléter)
-Tillandsia recurvata var. ciliata E.Morren ex Mez
-Tillandsia recurvata var. ciliata E.Morren ex Mez in Mart., Fl. Bras. 3(3): 610, n° 32 (1894)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Tillandsia recurvata var. ciliata E.Morren ex Mez</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia recurvata var. ciliata E.Morren ex Mez in Mart., Fl. Bras. 3(3): 610, n° 32 (1894)
 Synonymie :
 Phytarrhiza ciliata E.Morren ex Mez
-Diagnose originale[2] :
+Diagnose originale :
 « Var. α. CILIATA E. Morr. a typo differt habitu compactiore, foliis crassioribus, rectiusculis, scapum fere aequantibus. »
-Type : Mez[2] cite plusieurs spécimens différents sans désigner précisément un holotype. Aucune illustration n'est jointe au protologue et qui pourrait en tenir lieu.
+Type : Mez cite plusieurs spécimens différents sans désigner précisément un holotype. Aucune illustration n'est jointe au protologue et qui pourrait en tenir lieu.
 leg. Aschenborn, n°539 ; Syntypus (ubi ?)
 leg. J.L. Berlandier, n° 367, s.d., s.t. ; sine loco ; Syntypus US National Herbarium (US 00091090)
 leg. J.L. Berlandier, n° 2238 ; Syntypus (ubi ?)
 leg. Bourgeau, n° 96 ; Syntypus (ubi ?)
 leg. Schiede n° 1003 ; Syntypus (ubi ?)
 leg. Seler, n° 489 ; Syntypus (ubi ?)
-Distribution :  Mexique[2].
-Tillandsia recurvata var. contorta André
-Tillandsia recurvata var. contorta André, Bromel. Andr. : 65 (1889)
+Distribution :  Mexique.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Tillandsia recurvata var. contorta André</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia recurvata var. contorta André, Bromel. Andr. : 65 (1889)
 Diagnose originale : (à compléter)
 Type : (à compléter)
 Distribution : 
- Mexique[2]
+ Mexique
  Venezuela
- Chili[8].
-Tillandsia recurvata var. elongata André
-Tillandsia recurvata var. elongata André, Bromel. Andr. : 65 (1889)
+ Chili.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Tillandsia recurvata var. elongata André</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia recurvata var. elongata André, Bromel. Andr. : 65 (1889)
 Diagnose originale : (à compléter)
 Type : (à compléter)
 Distribution :  Colombie.
-Tillandsia recurvata var. genuinua André
-Tillandsia recurvata var. genuina André, Bromel. Andr. : 65 (1889) [nom. illeg.]
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Tillandsia recurvata var. genuinua André</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia recurvata var. genuina André, Bromel. Andr. : 65 (1889) [nom. illeg.]
 Synonymie :
 Tillandsia recurvata var. recurvata
 Distribution :
  Venezuela
  Colombie
  Équateur
-Tillandsia recurvata var. major André
-Tillandsia recurvata var. major André, Bromel. Andr. : 65 (1889)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Tillandsia recurvata var. major André</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia recurvata var. major André, Bromel. Andr. : 65 (1889)
 Diagnose originale : (à compléter)
 Type : (à compléter)
 Distribution :  Porto Rico.
-Tillandsia recurvata var. majuscula Mez
-Tillandsia recurvata var. δ majuscula Mez in Mart., Fl. Bras. 3(3): 611 (1894)
-Diagnose originale[2] :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tillandsia recurvata var. majuscula Mez</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia recurvata var. δ majuscula Mez in Mart., Fl. Bras. 3(3): 611 (1894)
+Diagnose originale :
 « Var. δ. MAJUSCULA Mez: a typo differt statura ut in var. ciliata robustiore; bracteis margine paullo lepidotis medio glabratis; floribus certe 15 mm. longis; petalis conspicue latioribus per anthesim patentibus. »
-Type : Mez[2] ne désigne aucun type de façon explicite et aucune illustration n'est jointe au protologue. 
-Distribution : sud du  Brésil[2].
-Tillandsia recurvata var. minor André
-Tillandsia recurvata var. minor André, Bromel. Andr. : 65 (1889)
+Type : Mez ne désigne aucun type de façon explicite et aucune illustration n'est jointe au protologue. 
+Distribution : sud du  Brésil.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Tillandsia recurvata var. minor André</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia recurvata var. minor André, Bromel. Andr. : 65 (1889)
 Diagnose originale : (à compléter)
 Type : (à compléter)
-Tillandsia recurvata var. minuta Mez
-Tillandsia recurvata var. γ minuta Mez in Mart., Fl. Bras. 3(3): 611 (1894)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Tillandsia recurvata var. minuta Mez</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia recurvata var. γ minuta Mez in Mart., Fl. Bras. 3(3): 611 (1894)
 Synonymie :
 Tillandsia recurvata f. minuta (Mez) A.Cast.
-Diagnose originale[2] :
+Diagnose originale :
 « Var. γ. MINUTA Mez: a typo differt statura tenuiore minoreque; scapo tenuissimo haud vaginato; floribus semper singulis folia haud superantibus. »
-Type : Mez[2] ne désigne aucun type de façon explicite et aucune illustration n'est jointe au protologue.
+Type : Mez ne désigne aucun type de façon explicite et aucune illustration n'est jointe au protologue.
 leg.: B. Balansa, n° 618 a, 1874-02-18 ; « L'Assomption » (loc. ign.) ; Isolectotypus B (B 10 0243488)
 Distribution :
  Brésil
-sud du Brésil (Minas Gerais)[2]
- Paraguay[8]
-Tillandsia recurvata f. minuta (Mez) A.Cast.
-Tillandsia recurvata f. minuta (Mez) A.Cast., Gen. Sp. Pl. Argent. 3: 347 (1945)
+sud du Brésil (Minas Gerais)
+ Paraguay
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Taxons infra-spécifiques</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Tillandsia recurvata f. minuta (Mez) A.Cast.</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia recurvata f. minuta (Mez) A.Cast., Gen. Sp. Pl. Argent. 3: 347 (1945)
 Synonymie :
 Tillandsia recurvata var. minuta Mez
 </t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Tillandsia_recurvata</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Tillandsia_recurvata</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Tillandsia_recurvata</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Comportement en culture</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Tillandsia recurvata est une plante de culture facile[4],[5] bien qu'elle soit assez sensible à la pourriture et nécessite donc une bonne aération[4].
+      <c r="F23" t="inlineStr"/>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tillandsia recurvata est une plante de culture facile, bien qu'elle soit assez sensible à la pourriture et nécessite donc une bonne aération.
 </t>
         </is>
       </c>
